--- a/biology/Botanique/Lagetta_lagetto/Lagetta_lagetto.xlsx
+++ b/biology/Botanique/Lagetta_lagetto/Lagetta_lagetto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagetta lagetto est une espèce de plantes dicotylédones de la famille des Thymelaeaceae, originaire des Caraïbes.
-C'est un arbuste, qui a reçu dans les Antilles le nom de « bois-dentelle » parce que l'écorce interne est structurée en réseau de fibres entrelacées et anastomosées qui évoque de la dentelle, et qui a été utilisée localement pendant des siècles pour fabriquer des vêtements ainsi que des objets utilitaires tels que nattes et cordes[2],[3]. 
-Noms vernaculaires[4]
+C'est un arbuste, qui a reçu dans les Antilles le nom de « bois-dentelle » parce que l'écorce interne est structurée en réseau de fibres entrelacées et anastomosées qui évoque de la dentelle, et qui a été utilisée localement pendant des siècles pour fabriquer des vêtements ainsi que des objets utilitaires tels que nattes et cordes,. 
+Noms vernaculaires
 français (Haïti) : laget, laget à dentelle, bois-dentelle, bois de dentelle, daguille ;
 anglais : lagetto lacebarktree, gauze tree, lace-bark ;
 espagnol : daguilla, daguilla común, daguilla de loma, guanilla, lagetto, palo de encaje ;
@@ -517,9 +529,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 juillet 2016)[5] : 	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 juillet 2016) : 	
 Daphne lagetto Sw.,
 Lagetta linearia Lam.</t>
         </is>
@@ -549,14 +563,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lagetta lagetto est un arbuste ou un petit arbre, pyramidal, étroit, pouvant atteindre 4 à 10 m de haut[2].
-Les feuilles persistantes, coriaces, lisses, de couleur vert foncé, sensiblement cordiformes, mesurent environ 10 cm de long sur 6 cm de large[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lagetta lagetto est un arbuste ou un petit arbre, pyramidal, étroit, pouvant atteindre 4 à 10 m de haut.
+Les feuilles persistantes, coriaces, lisses, de couleur vert foncé, sensiblement cordiformes, mesurent environ 10 cm de long sur 6 cm de large.
 Les fleurs, petites, subsessiles, sont rassemblées en épis disposées en alternance le long des rameaux à l'aisselle des feuilles.
 La corolle blanche, de forme campanulée tubulaire, se divise sur son bord extérieur en quatre lobes ovales pointus. 
-Le calice est absent[6].
-Les courtes étamines, filamenteuses, au nombre de huit, sont dissimulées dans la corolle[6].
+Le calice est absent.
+Les courtes étamines, filamenteuses, au nombre de huit, sont dissimulées dans la corolle.
 Les fruits sont des drupes arrondies, velues, contenant un noyau ovoïde, brun foncé, long de 6 mm environ.
 </t>
         </is>
@@ -586,10 +602,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lagetta lagetto pousse en sous-bois des forêts des îles des Caraïbes, en particulier la Jamaïque, Cuba et Saint-Domingue (partagée entre Haïti et la république dominicaine). Cet arbuste émerge souvent de crevasses dans les pentes rocheuses calcaires[2]. 
-On l'a signalé tout au long de la cordillère centrale de la Jamaïque à des altitudes allant de 40 à 800 mètres, ainsi que sur d'autres crêtes montagneuses des régions du centre-ouest de l'île[2],[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lagetta lagetto pousse en sous-bois des forêts des îles des Caraïbes, en particulier la Jamaïque, Cuba et Saint-Domingue (partagée entre Haïti et la république dominicaine). Cet arbuste émerge souvent de crevasses dans les pentes rocheuses calcaires. 
+On l'a signalé tout au long de la cordillère centrale de la Jamaïque à des altitudes allant de 40 à 800 mètres, ainsi que sur d'autres crêtes montagneuses des régions du centre-ouest de l'île,
 </t>
         </is>
       </c>
